--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2980316.415815133</v>
+        <v>2979589.816943907</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.6153303</v>
+        <v>5851605.615330297</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.679312448</v>
+        <v>864456.6793124485</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6456173.253759985</v>
+        <v>6456173.253759986</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>116.7223579978526</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -673,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>1.441771996890115</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33883039991489</v>
+        <v>91.42297362471295</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.9088497400011</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>28.01490760909612</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -910,7 +910,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>204.5562408624507</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.6302174766832</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>71.31157381942172</v>
+        <v>138.8619608060986</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>44.71220237559958</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1189,16 +1189,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>193.4795097704822</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.77201408958031</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>112.3157924738354</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1378,7 +1378,7 @@
         <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019337</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995114</v>
@@ -1426,7 +1426,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967466</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905462</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83.53727026841231</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>44.65330832841551</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037919</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>54.92104941501642</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>207.654309906727</v>
@@ -1587,7 +1587,7 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198764</v>
@@ -1627,7 +1627,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975884</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.60603984991761</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037919</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501642</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>103.188557496685</v>
       </c>
       <c r="T16" t="n">
         <v>207.654309906727</v>
@@ -1827,7 +1827,7 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
@@ -1855,7 +1855,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995107</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
         <v>375.1420595397582</v>
@@ -1864,7 +1864,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>96.30873100143955</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.2210835114334</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501642</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125509</v>
@@ -2304,7 +2304,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.989399898785</v>
@@ -2338,7 +2338,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975963</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037919</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>54.92104941501642</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
@@ -2541,7 +2541,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>14.01643745131396</v>
+        <v>70.69390511878747</v>
       </c>
       <c r="Y25" t="n">
         <v>192.989399898785</v>
@@ -2566,7 +2566,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
         <v>375.1420595397581</v>
@@ -2575,7 +2575,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
         <v>224.990945096747</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>123.9393279554096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
@@ -2772,16 +2772,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>166.5396278387351</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2812,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
         <v>224.990945096747</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>49.56236697288436</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
@@ -3009,16 +3009,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>103.9740797527106</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.697871601935</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
         <v>224.990945096747</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>33.12209635668106</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>207.6543099067269</v>
@@ -3246,13 +3246,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>74.19587570043518</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
         <v>192.9893998987849</v>
@@ -3286,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
         <v>224.990945096747</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61.04510745646594</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
@@ -3480,19 +3480,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>42.64799106733768</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
         <v>224.990945096747</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>53.72864923029628</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
@@ -3717,16 +3717,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>216.6854325105162</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
         <v>192.9893998987849</v>
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>174.1372571702753</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.127201442763817</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.8316553010462</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>231.1196372752417</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>223.4899753452292</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0439654718656</v>
+        <v>190.1296445970017</v>
       </c>
       <c r="C2" t="n">
-        <v>556.9597788255397</v>
+        <v>184.0454579506759</v>
       </c>
       <c r="D2" t="n">
-        <v>556.5362529590043</v>
+        <v>66.14408623567333</v>
       </c>
       <c r="E2" t="n">
-        <v>546.236441516305</v>
+        <v>55.8442747929741</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>38.85426678706571</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="I2" t="n">
-        <v>34.166386720302</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J2" t="n">
-        <v>34.166386720302</v>
+        <v>288.3518581880563</v>
       </c>
       <c r="K2" t="n">
-        <v>78.17457653903136</v>
+        <v>711.1608938517932</v>
       </c>
       <c r="L2" t="n">
-        <v>78.17457653903136</v>
+        <v>1133.96992951553</v>
       </c>
       <c r="M2" t="n">
-        <v>78.17457653903136</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="N2" t="n">
-        <v>500.9836122027686</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="O2" t="n">
-        <v>923.7926478665058</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="P2" t="n">
-        <v>1346.601683530243</v>
+        <v>1346.601683530241</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.762690325535</v>
+        <v>1667.762690325533</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.3193360151</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.3193360151</v>
+        <v>1573.038260809199</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.3193360151</v>
+        <v>1350.831776756058</v>
       </c>
       <c r="U2" t="n">
-        <v>1706.863000664706</v>
+        <v>1350.831776756058</v>
       </c>
       <c r="V2" t="n">
-        <v>1357.025446001187</v>
+        <v>1000.994222092539</v>
       </c>
       <c r="W2" t="n">
-        <v>973.265145136355</v>
+        <v>1000.994222092539</v>
       </c>
       <c r="X2" t="n">
-        <v>973.265145136355</v>
+        <v>600.3508242614912</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.265145136355</v>
+        <v>600.3508242614912</v>
       </c>
     </row>
     <row r="3">
@@ -4397,52 +4397,52 @@
         <v>341.6121835675025</v>
       </c>
       <c r="F3" t="n">
-        <v>232.6523037500071</v>
+        <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643458</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006183</v>
+        <v>54.91497810006179</v>
       </c>
       <c r="I3" t="n">
-        <v>34.166386720302</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J3" t="n">
-        <v>34.166386720302</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="K3" t="n">
-        <v>456.9754223840392</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="L3" t="n">
-        <v>512.8568000036421</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="M3" t="n">
-        <v>935.6658356673793</v>
+        <v>60.48824497727458</v>
       </c>
       <c r="N3" t="n">
-        <v>935.6658356673793</v>
+        <v>483.2972806410114</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331116</v>
+        <v>906.1063163047482</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331116</v>
+        <v>1328.915351968485</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.3193360151</v>
+        <v>1678.759816652468</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.3193360151</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129409</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316417</v>
+        <v>1708.319336015098</v>
       </c>
       <c r="U3" t="n">
-        <v>1402.261371003372</v>
+        <v>1615.972898010338</v>
       </c>
       <c r="V3" t="n">
         <v>1402.261371003372</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.9408836834104</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="C4" t="n">
-        <v>580.9408836834104</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="D4" t="n">
-        <v>509.3157829359346</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="E4" t="n">
-        <v>348.4049678042541</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7738419148453</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7738419148453</v>
+        <v>300.1198878105192</v>
       </c>
       <c r="H4" t="n">
-        <v>34.166386720302</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="I4" t="n">
-        <v>34.166386720302</v>
+        <v>34.16638672030196</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551252</v>
+        <v>48.24893612551249</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477505</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1563.565283341152</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1377.173515221062</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1137.624776197764</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="U4" t="n">
-        <v>854.8266287438885</v>
+        <v>769.5539104192883</v>
       </c>
       <c r="V4" t="n">
-        <v>580.9408836834104</v>
+        <v>495.6681653588102</v>
       </c>
       <c r="W4" t="n">
-        <v>580.9408836834104</v>
+        <v>495.6681653588102</v>
       </c>
       <c r="X4" t="n">
-        <v>580.9408836834104</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.9408836834104</v>
+        <v>467.3702788849757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.2909016982387</v>
+        <v>282.1850831086979</v>
       </c>
       <c r="C5" t="n">
-        <v>74.16631101150881</v>
+        <v>276.1008964623721</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>275.6773705958367</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>265.3775591531374</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>248.3875511472291</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,16 +4567,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
         <v>1571.411346813777</v>
@@ -4600,19 +4600,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.5120813627282</v>
+        <v>288.3658587327833</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844746</v>
@@ -4646,22 +4646,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
         <v>1708.850297433489</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.4281042659014</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="C7" t="n">
-        <v>278.4281042659014</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="D7" t="n">
-        <v>278.4281042659014</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>929.2073714114977</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>690.8635092711811</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.1278106599458</v>
+        <v>779.8647105585317</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>505.957021962903</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>91.61680647979972</v>
       </c>
       <c r="F8" t="n">
         <v>46.45296569636579</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>216.5644706858345</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M8" t="n">
-        <v>216.5644706858345</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1089.945929615741</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>894.5120813627283</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627283</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1714896368677</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0781171985842</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0154767040586</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>821.6068946421474</v>
+        <v>1372.440968497735</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8711960309121</v>
+        <v>1147.7052698865</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
@@ -5080,13 +5080,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.5419440130787</v>
+        <v>722.3228399649174</v>
       </c>
       <c r="C13" t="n">
-        <v>479.5419440130787</v>
+        <v>581.0263783613187</v>
       </c>
       <c r="D13" t="n">
-        <v>479.5419440130787</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="E13" t="n">
-        <v>479.5419440130787</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="F13" t="n">
-        <v>344.7077289583548</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751514</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187106</v>
+        <v>1088.772586829909</v>
       </c>
       <c r="X13" t="n">
-        <v>479.5419440130787</v>
+        <v>880.2256355242771</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.5419440130787</v>
+        <v>880.2256355242771</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764613</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388641</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5317,13 +5317,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>355.6459363114127</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>355.6459363114127</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.623017005979</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
         <v>1760.328909494509</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375.9731143336094</v>
+        <v>234.5401592942215</v>
       </c>
       <c r="C16" t="n">
-        <v>375.9731143336094</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>375.9731143336094</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>375.9731143336094</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1752.043346625802</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1542.291518437189</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200945</v>
+        <v>1289.290281817998</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751514</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W16" t="n">
-        <v>937.3616489751514</v>
+        <v>795.9286939357635</v>
       </c>
       <c r="X16" t="n">
-        <v>728.8146976695195</v>
+        <v>587.3817426301316</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.875909892969</v>
+        <v>392.4429548535811</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5600,19 +5600,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
         <v>2110.173374178493</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6391484537191</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6391484537191</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5718,7 +5718,7 @@
         <v>479.5419440130787</v>
       </c>
       <c r="Y19" t="n">
-        <v>479.5419440130787</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5791,13 +5791,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3947382540484</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
         <v>1760.328909494509</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6540635912172</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C22" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751514</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187106</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X22" t="n">
-        <v>688.0888953187106</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.1501075421601</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>844.5103911440685</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.0892943552106</v>
+        <v>630.1860124883464</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7928327516119</v>
+        <v>488.8895508847477</v>
       </c>
       <c r="D25" t="n">
-        <v>179.7928327516119</v>
+        <v>359.1918170423424</v>
       </c>
       <c r="E25" t="n">
-        <v>179.7928327516119</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1547.797168674963</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751514</v>
+        <v>1303.70833444917</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187106</v>
+        <v>1054.435580792729</v>
       </c>
       <c r="X25" t="n">
-        <v>673.9308776911207</v>
+        <v>983.0275958242564</v>
       </c>
       <c r="Y25" t="n">
-        <v>478.9920899145702</v>
+        <v>788.0888080477059</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>1640.177868931084</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.6540635912171</v>
+        <v>479.5419440130795</v>
       </c>
       <c r="C28" t="n">
-        <v>224.3576019876185</v>
+        <v>338.2454824094809</v>
       </c>
       <c r="D28" t="n">
-        <v>224.3576019876185</v>
+        <v>338.2454824094809</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6387,7 +6387,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
         <v>609.3875320253558</v>
@@ -6423,13 +6423,13 @@
         <v>937.361648975152</v>
       </c>
       <c r="W28" t="n">
-        <v>769.1398026733993</v>
+        <v>688.0888953187113</v>
       </c>
       <c r="X28" t="n">
-        <v>560.5928513677676</v>
+        <v>479.5419440130795</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.6540635912171</v>
+        <v>479.5419440130795</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9649248943615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>324.9649248943615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>324.9649248943615</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P30" t="n">
         <v>1760.328909494509</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>973.9991721489653</v>
       </c>
       <c r="C31" t="n">
-        <v>143.3066946329302</v>
+        <v>832.7027105453666</v>
       </c>
       <c r="D31" t="n">
-        <v>143.3066946329302</v>
+        <v>703.0049767029615</v>
       </c>
       <c r="E31" t="n">
-        <v>143.3066946329302</v>
+        <v>571.8910724059658</v>
       </c>
       <c r="F31" t="n">
-        <v>143.3066946329302</v>
+        <v>437.056857351242</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6624,7 +6624,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
         <v>609.3875320253558</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1131.901967708325</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>1131.901967708325</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>1131.901967708325</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>917.3518287999427</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.7003606771693</v>
+        <v>701.7114768544698</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>560.4150152508711</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>430.717281408466</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6861,7 +6861,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
         <v>609.3875320253558</v>
@@ -6885,25 +6885,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V34" t="n">
-        <v>937.361648975152</v>
+        <v>1263.100011496012</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187111</v>
+        <v>1263.100011496012</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>1054.55306019038</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>859.6142724138293</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
         <v>1198.623017005979</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.6031562365289</v>
+        <v>587.03741370693</v>
       </c>
       <c r="C37" t="n">
-        <v>284.6031562365289</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="D37" t="n">
-        <v>154.9054223941237</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>314.6270478063357</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7098,7 +7098,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
         <v>609.3875320253558</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200945</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V37" t="n">
-        <v>937.361648975152</v>
+        <v>1245.838693084259</v>
       </c>
       <c r="W37" t="n">
-        <v>688.0888953187111</v>
+        <v>996.565939427818</v>
       </c>
       <c r="X37" t="n">
-        <v>479.5419440130794</v>
+        <v>788.0189881221862</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6031562365289</v>
+        <v>744.9402092662896</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>355.6459363114127</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
         <v>1760.328909494509</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.3743743489454</v>
+        <v>426.2650023928783</v>
       </c>
       <c r="C40" t="n">
-        <v>228.0779127453467</v>
+        <v>284.9685407892796</v>
       </c>
       <c r="D40" t="n">
-        <v>228.0779127453467</v>
+        <v>284.9685407892796</v>
       </c>
       <c r="E40" t="n">
-        <v>228.0779127453467</v>
+        <v>284.9685407892796</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7335,7 +7335,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
         <v>609.3875320253558</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1215.57754556709</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>971.4887113412963</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="W40" t="n">
-        <v>722.2159576848554</v>
+        <v>987.65353703442</v>
       </c>
       <c r="X40" t="n">
-        <v>722.2159576848554</v>
+        <v>779.1065857287882</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.2771699083049</v>
+        <v>584.1677979522378</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4351.007589961326</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4093.947098220835</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3744.109543557316</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W41" t="n">
-        <v>3360.349242692484</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>182.7137268369972</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>182.7137268369972</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
         <v>1760.328909494509</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4063.35771140577</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3892.264338967486</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3732.769694290396</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.79311641105</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.79311641105</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.79311641105</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>4475.79311641105</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>4251.057417799814</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N45" t="n">
-        <v>524.2254458227151</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3416.38242488042</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="C46" t="n">
-        <v>3416.38242488042</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="D46" t="n">
-        <v>3416.38242488042</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.38242488042</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F46" t="n">
-        <v>3416.38242488042</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G46" t="n">
-        <v>3249.132033805963</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4337.363427183242</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>4054.565279729366</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>4054.565279729366</v>
+        <v>866.8415287683986</v>
       </c>
       <c r="W46" t="n">
-        <v>4054.565279729366</v>
+        <v>866.8415287683986</v>
       </c>
       <c r="X46" t="n">
-        <v>3828.8178298857</v>
+        <v>628.497666628082</v>
       </c>
       <c r="Y46" t="n">
-        <v>3604.082131274464</v>
+        <v>403.7619680168467</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>133.5891066618327</v>
+        <v>516.2162236769917</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666194</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>308.0697739668549</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603943</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295581</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846591</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,28 +8060,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883904</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5603597902459</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421924</v>
+        <v>84.15201935152106</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>480.2732273975246</v>
       </c>
       <c r="O3" t="n">
-        <v>484.831313003775</v>
+        <v>484.8313130037746</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065783</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8294,16 +8294,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5595280421012</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8312,7 +8312,7 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>249.8886267436438</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8546,13 +8546,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>237.1384347635734</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8771,13 +8771,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8789,10 +8789,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>126.1180868837635</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>418.7392830976428</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9248,10 +9248,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>771.9303349915991</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9260,10 +9260,10 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>177.4792112486527</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>148.6536994294856</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
-        <v>529.0025695961465</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>289.8876284449575</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>231.5212686203674</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>428.1366196128907</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,13 +10445,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>461.5915225678817</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,7 +10679,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10834,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4068279099972</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>370.8792594847201</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>146.4882906253687</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,19 +11378,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>488.5284925170755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>44.86348623556883</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>91.42563710895857</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -23664,16 +23664,16 @@
         <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>57.87983305425911</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>51.84035121586594</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>32.09202550254159</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
@@ -23910,7 +23910,7 @@
         <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037919</v>
+        <v>52.56154735369886</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.10268409233259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>40.35761073228447</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>136.0789454373741</v>
@@ -24384,7 +24384,7 @@
         <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.4450443412616</v>
+        <v>135.767576673788</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5.863437298616091</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>80.24039828114127</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>86.51657846448967</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.6738661308246</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>167.4520701831001</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>68.7576577975598</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -25332,7 +25332,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>150.3414088314472</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>79.75722367388035</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.78579174248287</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>45.84716204233442</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>157.1745055375999</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26031,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>40.02725033463159</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>12.47044817368422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>564027.1851230834</v>
+        <v>564027.1851230833</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>564027.1851230834</v>
+        <v>564027.1851230835</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>564027.1851230835</v>
+        <v>564027.1851230834</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>564027.1851230835</v>
+        <v>564027.1851230834</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>564027.1851230835</v>
+        <v>564027.1851230834</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>564027.1851230834</v>
+        <v>564027.1851230835</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>522346.851283827</v>
+        <v>522346.8512838272</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618953.0935233368</v>
+        <v>618953.0935233366</v>
       </c>
       <c r="C2" t="n">
-        <v>618953.0935233363</v>
+        <v>618953.0935233365</v>
       </c>
       <c r="D2" t="n">
         <v>618953.0935233366</v>
       </c>
       <c r="E2" t="n">
+        <v>599827.8647507949</v>
+      </c>
+      <c r="F2" t="n">
+        <v>599827.8647507953</v>
+      </c>
+      <c r="G2" t="n">
+        <v>599827.8647507952</v>
+      </c>
+      <c r="H2" t="n">
+        <v>599827.8647507952</v>
+      </c>
+      <c r="I2" t="n">
+        <v>599827.8647507947</v>
+      </c>
+      <c r="J2" t="n">
+        <v>599827.8647507949</v>
+      </c>
+      <c r="K2" t="n">
+        <v>599827.8647507949</v>
+      </c>
+      <c r="L2" t="n">
         <v>599827.8647507951</v>
       </c>
-      <c r="F2" t="n">
-        <v>599827.8647507952</v>
-      </c>
-      <c r="G2" t="n">
-        <v>599827.8647507951</v>
-      </c>
-      <c r="H2" t="n">
-        <v>599827.8647507951</v>
-      </c>
-      <c r="I2" t="n">
-        <v>599827.8647507949</v>
-      </c>
-      <c r="J2" t="n">
-        <v>599827.8647507951</v>
-      </c>
-      <c r="K2" t="n">
-        <v>599827.8647507952</v>
-      </c>
-      <c r="L2" t="n">
-        <v>599827.8647507949</v>
-      </c>
       <c r="M2" t="n">
-        <v>599827.8647507949</v>
+        <v>599827.8647507948</v>
       </c>
       <c r="N2" t="n">
         <v>599827.8647507949</v>
@@ -26355,7 +26355,7 @@
         <v>550332.4683166783</v>
       </c>
       <c r="P2" t="n">
-        <v>550332.4683166784</v>
+        <v>550332.4683166783</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108471</v>
+        <v>143124.2752108469</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668772</v>
+        <v>30686.46086668785</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691541</v>
+        <v>135342.029469154</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110918</v>
+        <v>24445.77426110928</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214756.4453361009</v>
+        <v>214756.445336101</v>
       </c>
       <c r="C4" t="n">
         <v>193745.8212557931</v>
@@ -26435,28 +26435,28 @@
         <v>89457.14057469083</v>
       </c>
       <c r="H4" t="n">
-        <v>89457.14057469081</v>
+        <v>89457.14057469083</v>
       </c>
       <c r="I4" t="n">
-        <v>89457.14057469081</v>
+        <v>89457.14057469083</v>
       </c>
       <c r="J4" t="n">
+        <v>89457.14057469091</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89457.14057469091</v>
+      </c>
+      <c r="L4" t="n">
         <v>89457.1405746909</v>
       </c>
-      <c r="K4" t="n">
-        <v>89457.1405746909</v>
-      </c>
-      <c r="L4" t="n">
-        <v>89457.14057469089</v>
-      </c>
       <c r="M4" t="n">
-        <v>89457.14057469089</v>
+        <v>89457.14057469091</v>
       </c>
       <c r="N4" t="n">
         <v>89457.14057469091</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
         <v>59647.11115782197</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742952</v>
+        <v>59594.05390742949</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201478.3190689593</v>
+        <v>201478.3190689592</v>
       </c>
       <c r="C6" t="n">
         <v>329151.746322358</v>
       </c>
       <c r="D6" t="n">
-        <v>359838.207189046</v>
+        <v>359838.2071890459</v>
       </c>
       <c r="E6" t="n">
-        <v>221296.6511187259</v>
+        <v>221246.3215693244</v>
       </c>
       <c r="F6" t="n">
-        <v>437025.5673992395</v>
+        <v>436975.2378498382</v>
       </c>
       <c r="G6" t="n">
-        <v>437025.5673992394</v>
+        <v>436975.2378498381</v>
       </c>
       <c r="H6" t="n">
-        <v>437025.5673992394</v>
+        <v>436975.2378498381</v>
       </c>
       <c r="I6" t="n">
-        <v>437025.5673992393</v>
+        <v>436975.2378498376</v>
       </c>
       <c r="J6" t="n">
-        <v>301683.5379300853</v>
+        <v>301633.2083806837</v>
       </c>
       <c r="K6" t="n">
-        <v>412579.7931381303</v>
+        <v>412529.4635887285</v>
       </c>
       <c r="L6" t="n">
-        <v>437025.5673992392</v>
+        <v>436975.2378498379</v>
       </c>
       <c r="M6" t="n">
-        <v>276667.1168985565</v>
+        <v>276616.787349155</v>
       </c>
       <c r="N6" t="n">
-        <v>437025.5673992392</v>
+        <v>436975.2378498378</v>
       </c>
       <c r="O6" t="n">
-        <v>419820.146913983</v>
+        <v>419639.5663213339</v>
       </c>
       <c r="P6" t="n">
-        <v>419820.1469139832</v>
+        <v>419639.5663213339</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>29.49894172633793</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.079834003775</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.079834003775</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625058</v>
+        <v>94.98373636625098</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.079834003775</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625058</v>
+        <v>94.98373636625098</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.079834003775</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625058</v>
+        <v>94.98373636625098</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>283.6969326100175</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.0481148261949</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>157.0384723532486</v>
+        <v>103.9543291284505</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99084849031797</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>207.9455159098173</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>200.0847604036454</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.2970888447077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27782,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>87.99013316094199</v>
+        <v>20.43974617426508</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,19 +27830,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>372.1079055502497</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>203.1574540822548</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>129.1276841407388</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.6446310450781</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="41">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>44.45271698861552</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>214.7795495098094</v>
       </c>
       <c r="N2" t="n">
-        <v>427.079834003775</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.079834003775</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.079834003775</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>427.079834003775</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56.44583597939683</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.079834003775</v>
+        <v>26.58773561310365</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="O3" t="n">
-        <v>427.079834003775</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037746</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>117.7337452574859</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5650354103358</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635734</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35491,13 +35491,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>70.29230409914815</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35968,10 +35968,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>714.3660512531817</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>121.3646874378037</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36381,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
-        <v>474.7429345933427</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>234.0618456603421</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>372.0220958020416</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>405.4769987570326</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37484,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>70.29230409914815</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37721,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
